--- a/setups/Var_Table_GCI_Pictures.xlsx
+++ b/setups/Var_Table_GCI_Pictures.xlsx
@@ -429,13 +429,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.1519268212522376</v>
+        <v>0.2429070966750808</v>
       </c>
       <c r="D2">
-        <v>0.1538492944020602</v>
+        <v>0.2395767412653659</v>
       </c>
       <c r="E2">
-        <v>0.1552504401704657</v>
+        <v>0.2446696100726727</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,13 +446,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.06144065689160411</v>
+        <v>0.09671555322911735</v>
       </c>
       <c r="D3">
-        <v>0.07131371321834332</v>
+        <v>0.1149360087640183</v>
       </c>
       <c r="E3">
-        <v>0.07618239736312236</v>
+        <v>0.1194991818799074</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,13 +463,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.00377495431927182</v>
+        <v>0.00935389823641423</v>
       </c>
       <c r="D4">
-        <v>0.005085645692988115</v>
+        <v>0.0132102861106025</v>
       </c>
       <c r="E4">
-        <v>0.005803757667992674</v>
+        <v>0.01428005446996719</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,13 +480,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>3.644565024417819</v>
+        <v>2.33225421584209</v>
       </c>
       <c r="D5">
-        <v>3.000209406751438</v>
+        <v>1.731429414168049</v>
       </c>
       <c r="E5">
-        <v>2.84633183993283</v>
+        <v>1.851524892906369</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,13 +497,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>18.4494133738106</v>
+        <v>6.686308487746242</v>
       </c>
       <c r="D6">
-        <v>12.76302067769857</v>
+        <v>3.535204776440193</v>
       </c>
       <c r="E6">
-        <v>10.7605935188875</v>
+        <v>3.547280923742593</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>40.44095465513414</v>
+        <v>39.81586151782414</v>
       </c>
       <c r="D7">
-        <v>46.35296736036793</v>
+        <v>47.97461062245188</v>
       </c>
       <c r="E7">
-        <v>49.07064822455496</v>
+        <v>48.84103990046549</v>
       </c>
     </row>
   </sheetData>

--- a/setups/Var_Table_GCI_Pictures.xlsx
+++ b/setups/Var_Table_GCI_Pictures.xlsx
@@ -429,13 +429,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.2429070966750808</v>
+        <v>0.4305099655428042</v>
       </c>
       <c r="D2">
-        <v>0.2395767412653659</v>
+        <v>0.4289701383089291</v>
       </c>
       <c r="E2">
-        <v>0.2446696100726727</v>
+        <v>0.4275098360405326</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,13 +446,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.09671555322911735</v>
+        <v>0.08444725529611972</v>
       </c>
       <c r="D3">
-        <v>0.1149360087640183</v>
+        <v>0.08885734646265671</v>
       </c>
       <c r="E3">
-        <v>0.1194991818799074</v>
+        <v>0.08941429023735328</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,13 +463,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.00935389823641423</v>
+        <v>0.007131338927048022</v>
       </c>
       <c r="D4">
-        <v>0.0132102861106025</v>
+        <v>0.007895628020384611</v>
       </c>
       <c r="E4">
-        <v>0.01428005446996719</v>
+        <v>0.00799491529864965</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,13 +480,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>2.33225421584209</v>
+        <v>0.8491295975568962</v>
       </c>
       <c r="D5">
-        <v>1.731429414168049</v>
+        <v>0.4599090748355991</v>
       </c>
       <c r="E5">
-        <v>1.851524892906369</v>
+        <v>0.482837443486062</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,13 +497,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>6.686308487746242</v>
+        <v>0.847758201269138</v>
       </c>
       <c r="D6">
-        <v>3.535204776440193</v>
+        <v>1.555985992864166</v>
       </c>
       <c r="E6">
-        <v>3.547280923742593</v>
+        <v>1.378357002386516</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>39.81586151782414</v>
+        <v>19.61563309914214</v>
       </c>
       <c r="D7">
-        <v>47.97461062245188</v>
+        <v>20.71411003407999</v>
       </c>
       <c r="E7">
-        <v>48.84103990046549</v>
+        <v>20.91514222584479</v>
       </c>
     </row>
   </sheetData>

--- a/setups/Var_Table_GCI_Pictures.xlsx
+++ b/setups/Var_Table_GCI_Pictures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>variable</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>Variance</t>
-  </si>
-  <si>
-    <t>Skewness</t>
-  </si>
-  <si>
-    <t>Kurtosis</t>
   </si>
   <si>
     <t>Coefficient of Variation</t>
@@ -401,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,13 +423,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.4305099655428042</v>
+        <v>0.8733316393119919</v>
       </c>
       <c r="D2">
-        <v>0.4289701383089291</v>
+        <v>0.8702418810835432</v>
       </c>
       <c r="E2">
-        <v>0.4275098360405326</v>
+        <v>0.8706835263412515</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,13 +440,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.08444725529611972</v>
+        <v>0.2329492598563525</v>
       </c>
       <c r="D3">
-        <v>0.08885734646265671</v>
+        <v>0.2376457028685719</v>
       </c>
       <c r="E3">
-        <v>0.08941429023735328</v>
+        <v>0.2377818330927085</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,13 +457,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.007131338927048022</v>
+        <v>0.05426535766762242</v>
       </c>
       <c r="D4">
-        <v>0.007895628020384611</v>
+        <v>0.05647548009189757</v>
       </c>
       <c r="E4">
-        <v>0.00799491529864965</v>
+        <v>0.0565402001489287</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,47 +474,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.8491295975568962</v>
+        <v>26.67363111221634</v>
       </c>
       <c r="D5">
-        <v>0.4599090748355991</v>
+        <v>27.30800574349259</v>
       </c>
       <c r="E5">
-        <v>0.482837443486062</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>0.847758201269138</v>
-      </c>
-      <c r="D6">
-        <v>1.555985992864166</v>
-      </c>
-      <c r="E6">
-        <v>1.378357002386516</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>19.61563309914214</v>
-      </c>
-      <c r="D7">
-        <v>20.71411003407999</v>
-      </c>
-      <c r="E7">
-        <v>20.91514222584479</v>
+        <v>27.30978890710211</v>
       </c>
     </row>
   </sheetData>

--- a/setups/Var_Table_GCI_Pictures.xlsx
+++ b/setups/Var_Table_GCI_Pictures.xlsx
@@ -423,13 +423,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.8733316393119919</v>
+        <v>0.4305099655428042</v>
       </c>
       <c r="D2">
-        <v>0.8702418810835432</v>
+        <v>0.4289701383089291</v>
       </c>
       <c r="E2">
-        <v>0.8706835263412515</v>
+        <v>0.4275098360405326</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +440,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.2329492598563525</v>
+        <v>0.08444725529611972</v>
       </c>
       <c r="D3">
-        <v>0.2376457028685719</v>
+        <v>0.08885734646265671</v>
       </c>
       <c r="E3">
-        <v>0.2377818330927085</v>
+        <v>0.08941429023735328</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +457,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.05426535766762242</v>
+        <v>0.007131338927048022</v>
       </c>
       <c r="D4">
-        <v>0.05647548009189757</v>
+        <v>0.007895628020384611</v>
       </c>
       <c r="E4">
-        <v>0.0565402001489287</v>
+        <v>0.00799491529864965</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +474,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>26.67363111221634</v>
+        <v>19.61563309914214</v>
       </c>
       <c r="D5">
-        <v>27.30800574349259</v>
+        <v>20.71411003407999</v>
       </c>
       <c r="E5">
-        <v>27.30978890710211</v>
+        <v>20.91514222584479</v>
       </c>
     </row>
   </sheetData>

--- a/setups/Var_Table_GCI_Pictures.xlsx
+++ b/setups/Var_Table_GCI_Pictures.xlsx
@@ -423,13 +423,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.4305099655428042</v>
+        <v>0.6306836866502078</v>
       </c>
       <c r="D2">
-        <v>0.4289701383089291</v>
+        <v>0.6187786730549253</v>
       </c>
       <c r="E2">
-        <v>0.4275098360405326</v>
+        <v>0.6126318529329569</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +440,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.08444725529611972</v>
+        <v>0.208289031674727</v>
       </c>
       <c r="D3">
-        <v>0.08885734646265671</v>
+        <v>0.2107123600455134</v>
       </c>
       <c r="E3">
-        <v>0.08941429023735328</v>
+        <v>0.2113512510940114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +457,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.007131338927048022</v>
+        <v>0.04338432071599541</v>
       </c>
       <c r="D4">
-        <v>0.007895628020384611</v>
+        <v>0.04439969867595008</v>
       </c>
       <c r="E4">
-        <v>0.00799491529864965</v>
+        <v>0.04466935133900386</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +474,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>19.61563309914214</v>
+        <v>33.02591078279293</v>
       </c>
       <c r="D5">
-        <v>20.71411003407999</v>
+        <v>34.05294481227374</v>
       </c>
       <c r="E5">
-        <v>20.91514222584479</v>
+        <v>34.49890012773145</v>
       </c>
     </row>
   </sheetData>

--- a/setups/Var_Table_GCI_Pictures.xlsx
+++ b/setups/Var_Table_GCI_Pictures.xlsx
@@ -423,13 +423,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.6306836866502078</v>
+        <v>0.8733316393119919</v>
       </c>
       <c r="D2">
-        <v>0.6187786730549253</v>
+        <v>0.8702418810835432</v>
       </c>
       <c r="E2">
-        <v>0.6126318529329569</v>
+        <v>0.8706835263412515</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +440,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.208289031674727</v>
+        <v>0.2329492598563525</v>
       </c>
       <c r="D3">
-        <v>0.2107123600455134</v>
+        <v>0.2376457028685719</v>
       </c>
       <c r="E3">
-        <v>0.2113512510940114</v>
+        <v>0.2377818330927085</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +457,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.04338432071599541</v>
+        <v>0.05426535766762242</v>
       </c>
       <c r="D4">
-        <v>0.04439969867595008</v>
+        <v>0.05647548009189757</v>
       </c>
       <c r="E4">
-        <v>0.04466935133900386</v>
+        <v>0.0565402001489287</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +474,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>33.02591078279293</v>
+        <v>26.67363111221634</v>
       </c>
       <c r="D5">
-        <v>34.05294481227374</v>
+        <v>27.30800574349259</v>
       </c>
       <c r="E5">
-        <v>34.49890012773145</v>
+        <v>27.30978890710211</v>
       </c>
     </row>
   </sheetData>

--- a/setups/Var_Table_GCI_Pictures.xlsx
+++ b/setups/Var_Table_GCI_Pictures.xlsx
@@ -423,13 +423,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.8733316393119919</v>
+        <v>0.6306836866502078</v>
       </c>
       <c r="D2">
-        <v>0.8702418810835432</v>
+        <v>0.6187786730549253</v>
       </c>
       <c r="E2">
-        <v>0.8706835263412515</v>
+        <v>0.6126318529329569</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +440,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.2329492598563525</v>
+        <v>0.208289031674727</v>
       </c>
       <c r="D3">
-        <v>0.2376457028685719</v>
+        <v>0.2107123600455134</v>
       </c>
       <c r="E3">
-        <v>0.2377818330927085</v>
+        <v>0.2113512510940114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +457,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.05426535766762242</v>
+        <v>0.04338432071599541</v>
       </c>
       <c r="D4">
-        <v>0.05647548009189757</v>
+        <v>0.04439969867595008</v>
       </c>
       <c r="E4">
-        <v>0.0565402001489287</v>
+        <v>0.04466935133900386</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +474,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>26.67363111221634</v>
+        <v>33.02591078279293</v>
       </c>
       <c r="D5">
-        <v>27.30800574349259</v>
+        <v>34.05294481227374</v>
       </c>
       <c r="E5">
-        <v>27.30978890710211</v>
+        <v>34.49890012773145</v>
       </c>
     </row>
   </sheetData>
